--- a/策划案/设计文档/数值平衡表.xlsx
+++ b/策划案/设计文档/数值平衡表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="4"/>
+    <workbookView windowHeight="17655" tabRatio="605" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基础参数" sheetId="5" r:id="rId1"/>
@@ -2803,6 +2803,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{c02d4015-fd24-4bc1-8728-21770eb17d28}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3163,6 +3168,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{bdfadc42-24ac-4e83-ba28-81d454350eb3}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3523,6 +3533,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{8c4d84b9-6425-435a-893c-b250d33efce4}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3883,6 +3898,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{5129a5ea-79aa-40d5-80af-2519009b78c7}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4243,6 +4263,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{52bf0d4a-b8a6-4a79-acaa-61cc9e8fd5b4}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4603,6 +4628,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{febc29f4-ae47-46fc-8dd4-814dec500650}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4963,6 +4993,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{aec07256-6980-44a9-9ec4-34ae8dddde8f}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5334,6 +5369,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{94d316e5-a15c-4969-a432-abc912354635}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5705,6 +5745,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{989e9722-f197-45c7-9bc5-9c3d10f79a33}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6076,6 +6121,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{ca6d7396-9790-4ce5-bb47-52e7ca481d9c}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6872,6 +6922,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{bddd41a2-f92c-4eda-9c9f-a91e44408a4e}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7243,6 +7298,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{23276402-02cb-4c9b-b22e-0b5a1d001f74}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7614,6 +7674,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{566e6c9d-e21c-452d-bebf-61dd35e3e864}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7985,6 +8050,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{5383f32a-47d5-4306-a9f7-37da043629ac}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8356,6 +8426,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{9427c08b-ee89-471a-b1de-b3e665257ae2}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8727,6 +8802,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{ed15bb7f-3dc2-4a89-beb9-3063cd393b4a}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9098,6 +9178,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{9b63ddcc-fb10-40d7-8589-4a4568d28e3a}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9469,6 +9554,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{85389e7d-b52b-4754-ac6d-c0d29e980e03}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9840,6 +9930,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{cecf0c43-aac1-40ca-9865-b7a0dc08f04b}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10952,6 +11047,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{66d85f73-50e7-4a41-9c06-4ee4d4a44c84}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11312,6 +11412,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{a238cc92-e1a8-4417-9982-e0c5bdbc5e95}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11672,6 +11777,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{3c058cb5-e46e-4779-a475-95d0a8df6d2d}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12032,6 +12142,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{546d9ed7-43b3-4553-926f-ea5a6db224b4}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12392,6 +12507,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{6b0de4ff-4614-4db3-904d-215173db2018}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -28177,13 +28297,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2447925</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>2733675</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -28191,8 +28311,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6838950" y="31121350"/>
-        <a:ext cx="2371725" cy="3352800"/>
+        <a:off x="6838950" y="31083250"/>
+        <a:ext cx="2657475" cy="3362325"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -33890,8 +34010,8 @@
   <sheetPr/>
   <dimension ref="A2:F136"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123:F123"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -35705,7 +35825,7 @@
   <sheetPr/>
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E65" sqref="E65:F73"/>
     </sheetView>
   </sheetViews>
@@ -38177,8 +38297,8 @@
   <sheetPr/>
   <dimension ref="A1:V253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K29" workbookViewId="0">
-      <selection activeCell="T50" sqref="T50"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="J198" sqref="J198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
